--- a/xlsx/迪纳利山_intext.xlsx
+++ b/xlsx/迪纳利山_intext.xlsx
@@ -29,7 +29,7 @@
     <t>迪纳利国家公园和保留区</t>
   </si>
   <si>
-    <t>政策_政策_美國_迪纳利山</t>
+    <t>政策_政策_美国_迪纳利山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%BD%A2%E7%AA%81%E8%B5%B7%E5%BA%A6</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%84%88%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>山脈列表</t>
+    <t>山脉列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E6%B4%B2%E6%9C%80%E9%AB%98%E5%B3%B0%E5%88%97%E8%A1%A8</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E7%B7%AF%E5%BA%A6</t>
   </si>
   <si>
-    <t>經緯度</t>
+    <t>经纬度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
@@ -125,19 +125,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國政府</t>
+    <t>美国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國內政部</t>
+    <t>美国内政部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%BA%A6%E9%87%91%E8%8E%B1</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/BBC%E4%B8%AD%E6%96%87%E7%B6%B2</t>
   </si>
   <si>
-    <t>BBC中文網</t>
+    <t>BBC中文网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E5%A4%A7%E6%B4%B2%E6%9C%80%E9%AB%98%E5%B3%B0%E5%88%97%E8%A1%A8</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%A0%E7%A9%86%E6%9C%97%E7%91%AA%E5%B3%B0</t>
   </si>
   <si>
-    <t>珠穆朗瑪峰</t>
+    <t>珠穆朗玛峰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E9%87%8C%E8%96%A9%E5%B7%B4%E5%B1%B1</t>
   </si>
   <si>
-    <t>奧里薩巴山</t>
+    <t>奥里萨巴山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%B0%94%E5%B8%83%E9%B2%81%E5%A3%AB%E5%B1%B1</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A5%B5%E6%B4%B2</t>
   </si>
   <si>
-    <t>南極洲</t>
+    <t>南极洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%A3%AE%E5%B1%B1</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E4%BA%9E%E5%B3%B0</t>
   </si>
   <si>
-    <t>查亞峰</t>
+    <t>查亚峰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%E5%B3%B0</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
